--- a/Source Documents/TSEEQ Sales Sample/Variables/Sales Dashboard Chart Measures.xlsx
+++ b/Source Documents/TSEEQ Sales Sample/Variables/Sales Dashboard Chart Measures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TSEEQ\Source Documents\TSEEQ Sales Sample\Variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9C35C5-89EE-4CDC-80FB-425A4799105A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E792AC1-647C-42E6-900C-7BC2AFD4B722}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{5F9F463C-5202-41FA-8ABC-C69595410BDE}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5F9F463C-5202-41FA-8ABC-C69595410BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>ENABLED</t>
   </si>
@@ -179,27 +179,12 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>sum (test )</t>
-  </si>
-  <si>
     <t>MeasureDefinition</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>NONE SELECTED</t>
-  </si>
-  <si>
-    <t>Value in measure selector indicating user does not want to use to use the measure; not currently used</t>
-  </si>
-  <si>
     <t>Sales $ YTD</t>
   </si>
   <si>
@@ -224,22 +209,37 @@
     <t>$(eSalesAmount)</t>
   </si>
   <si>
-    <t>eSalesAmount is defined in Sales_Variables</t>
-  </si>
-  <si>
-    <t>$(eSalesAmountParameterized([Order CurYTDFlag],1))</t>
-  </si>
-  <si>
-    <t>eSalesAmountParameterized is defined in Sales_Variables</t>
-  </si>
-  <si>
-    <t>$(eSalesAmountParameterized([Order LastYTDFlag],1))</t>
-  </si>
-  <si>
-    <t>$(eSalesAmountParameterized([Order CurQTDFlag],1))</t>
-  </si>
-  <si>
-    <t>$(eSalesAmountParameterized([Order LastQTDFlag],1))</t>
+    <t>$(eSalesAmountYTD)</t>
+  </si>
+  <si>
+    <t>$(eSalesAmountLYTD)</t>
+  </si>
+  <si>
+    <t>$(eSalesAmountQTD)</t>
+  </si>
+  <si>
+    <t>$(eSalesAmountLQTD)</t>
+  </si>
+  <si>
+    <t>$(eSalesAmountVariancePctgYoY)</t>
+  </si>
+  <si>
+    <t>Sales Amt Variance % YoY</t>
+  </si>
+  <si>
+    <t>Sales Amt Variance % QoQ</t>
+  </si>
+  <si>
+    <t>$(eVariancePercentageParameterized( eSalesAmountQTD ,eSalesAmountLQTD))</t>
+  </si>
+  <si>
+    <t>All variables referenced in Column B are defined in Sales_Variables.xls</t>
+  </si>
+  <si>
+    <t>Explicit expressions (this line) as well as variables (most other lines) can be referenced</t>
+  </si>
+  <si>
+    <t>This line references a parametized variable with 2 variables passed as arguments</t>
   </si>
 </sst>
 </file>
@@ -323,28 +323,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{224521D0-CE49-4F74-AF24-5AFBC0F26509}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -678,7 +700,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,6 +708,7 @@
     <col min="1" max="1" width="29.109375" customWidth="1"/>
     <col min="2" max="2" width="52.88671875" customWidth="1"/>
     <col min="3" max="3" width="49.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -693,13 +716,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -707,41 +730,35 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -749,85 +766,97 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C7 D1 C10:C1048576">
+  <conditionalFormatting sqref="C1:C5 D1 C8 C11:C1048576">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C7">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Y"</formula>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>$I10="ALL"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
